--- a/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
+++ b/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD6AE4B-C06C-4C64-B004-8830B6D94A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E7B0C0-5E1B-4953-B103-EF218AB9AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D36D10F0-AF4E-44DA-954E-53F13A02C47F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A34AC20-81E1-4DFE-82B1-05F4250E5A30}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B236AF2C-5D3A-34E3-AD50-F52289C4887C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD65F70-BB1F-0938-D4B1-69C87B38F16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF15C42-2D6F-F320-4F81-A659536EC465}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0FD417-5ADF-BB4B-F9BB-ED250C5BB2BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9A1E86-E9DF-4ADD-86A4-3EA0B2FD1057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4012D6C-F3EF-41CA-A5F0-12F28014898E}">
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15799,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAA35A1-EB60-404B-8145-C8760D83FE62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2776F20C-BFBD-4C1A-87F3-845978A7DF90}">
   <dimension ref="A1:T273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
+++ b/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E7B0C0-5E1B-4953-B103-EF218AB9AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5A930F-65FB-4465-A2D0-9928A4CF3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A34AC20-81E1-4DFE-82B1-05F4250E5A30}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{B7EA1447-0524-4FFB-AB2D-68DD685B13EC}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD65F70-BB1F-0938-D4B1-69C87B38F16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA910B66-6B52-F6FE-1DA0-14B27CB6F9E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0FD417-5ADF-BB4B-F9BB-ED250C5BB2BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F190B6-2901-BDA1-B433-04EA1B70931E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4012D6C-F3EF-41CA-A5F0-12F28014898E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F30EA8-2713-40AE-B384-6E2023DE217F}">
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15799,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2776F20C-BFBD-4C1A-87F3-845978A7DF90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E303D97-5EDE-4BCA-A512-C0016DB4C812}">
   <dimension ref="A1:T273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
+++ b/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5A930F-65FB-4465-A2D0-9928A4CF3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18F9C7A-50B1-4E84-BEE7-A99E909FEB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{B7EA1447-0524-4FFB-AB2D-68DD685B13EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{170C2718-CD3A-4D44-8F9D-8009CEF8ADD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA910B66-6B52-F6FE-1DA0-14B27CB6F9E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438145EA-B24D-7859-C8FD-8AFFCF34BDFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F190B6-2901-BDA1-B433-04EA1B70931E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4292A66B-2EDE-2B04-B92A-98D41D384347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F30EA8-2713-40AE-B384-6E2023DE217F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307BCB9C-0050-4750-A186-859C02C771AE}">
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15799,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E303D97-5EDE-4BCA-A512-C0016DB4C812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A086B17-67A5-4800-95D5-5AA845919C14}">
   <dimension ref="A1:T273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
+++ b/VerveStacks_SAU/vt_vervestacks_SAU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18F9C7A-50B1-4E84-BEE7-A99E909FEB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8FE84D-CA5B-4BE9-9A44-EDBF12028DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{170C2718-CD3A-4D44-8F9D-8009CEF8ADD6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5D231DD6-D488-4649-BD38-3FCCB8BF24CA}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438145EA-B24D-7859-C8FD-8AFFCF34BDFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F707A-B8CE-C55D-08D6-47E5C3D0C2F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4292A66B-2EDE-2B04-B92A-98D41D384347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731051C1-83E9-A4E3-885C-717FF38EE13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307BCB9C-0050-4750-A186-859C02C771AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B2C23-54D2-4F46-A81A-1F35E60156B5}">
   <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15799,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A086B17-67A5-4800-95D5-5AA845919C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7DC65-065A-4356-A14B-E4507C298695}">
   <dimension ref="A1:T273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
